--- a/templates/carbomica_progbook_AKHS_Mombasa.xlsx
+++ b/templates/carbomica_progbook_AKHS_Mombasa.xlsx
@@ -39,7 +39,7 @@
     <t>solar_system</t>
   </si>
   <si>
-    <t>PV Solar Power generation system</t>
+    <t>PV Solar System</t>
   </si>
   <si>
     <t>N</t>
@@ -48,73 +48,73 @@
     <t>low_gpw_anaesthetic_gases</t>
   </si>
   <si>
-    <t>Low GPW anaesthetic gases</t>
+    <t>Low GPW Anaesthetics</t>
   </si>
   <si>
     <t>low_gpw_refridgerant_gases</t>
   </si>
   <si>
-    <t>Low GPW refridgerant gases</t>
+    <t>Low GPW Refrigerants</t>
   </si>
   <si>
     <t>low_gpw_inhalers</t>
   </si>
   <si>
-    <t>Low GPW inhalers</t>
+    <t>Low GPW Inhalers</t>
   </si>
   <si>
     <t>electric_vehicle</t>
   </si>
   <si>
-    <t xml:space="preserve">Transition to Hybrid/electric vehicles </t>
+    <t>Hybrid/Electric Vehicles</t>
   </si>
   <si>
     <t>waste_disposal</t>
   </si>
   <si>
-    <t>alternative waste disposal methods</t>
+    <t>Alt. Waste Disposal</t>
   </si>
   <si>
     <t>led_lighting</t>
   </si>
   <si>
-    <t>Replacing old tube Lights with LEDs Lights</t>
-  </si>
-  <si>
-    <t>solar_water_heating _system</t>
-  </si>
-  <si>
-    <t>Solar Water Heating</t>
-  </si>
-  <si>
-    <t>solar_water_pumping _system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Water Pumping </t>
+    <t>LED Lights Replace</t>
+  </si>
+  <si>
+    <t>solar_water_heating_system</t>
+  </si>
+  <si>
+    <t>Solar Water Heat</t>
+  </si>
+  <si>
+    <t>solar_water_pumping_system</t>
+  </si>
+  <si>
+    <t>Solar Water Pump</t>
   </si>
   <si>
     <t>water_pumps</t>
   </si>
   <si>
-    <t>Variable Frequency Drivers (VFDs) for Water Pumps</t>
-  </si>
-  <si>
-    <t>air_conditioning _units</t>
-  </si>
-  <si>
-    <t>Replacing AC split units and old  air-conditioning packaged units for efficient splits/AHUs/VRFs</t>
-  </si>
-  <si>
-    <t>energy_efficient _refrigetors</t>
-  </si>
-  <si>
-    <t>Replacing energy efficient fridges /Cold rooms</t>
-  </si>
-  <si>
-    <t>alternative_cooking _gas</t>
-  </si>
-  <si>
-    <t>use renewable LPG such as from agricultural residues, landfill gas or biogas</t>
+    <t>VFDs for Pumps</t>
+  </si>
+  <si>
+    <t>air_conditioning_units</t>
+  </si>
+  <si>
+    <t>Efficient AC Units</t>
+  </si>
+  <si>
+    <t>energy_efficient_refrigerators</t>
+  </si>
+  <si>
+    <t>Efficient Fridges</t>
+  </si>
+  <si>
+    <t>alternative_cooking_gas</t>
+  </si>
+  <si>
+    <t>Renewable LPG</t>
   </si>
   <si>
     <t>Provenance</t>
@@ -639,8 +639,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="107.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
@@ -1072,7 +1072,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -1728,7 +1728,7 @@
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating _system</v>
+        <v>solar_water_heating_system</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>33</v>
@@ -1820,7 +1820,7 @@
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping _system</v>
+        <v>solar_water_pumping_system</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>33</v>
@@ -2004,7 +2004,7 @@
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="str">
         <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning _units</v>
+        <v>air_conditioning_units</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>33</v>
@@ -2096,7 +2096,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="str">
         <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient _refrigetors</v>
+        <v>energy_efficient_refrigerators</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>33</v>
@@ -2188,7 +2188,7 @@
     <row r="85" spans="1:7">
       <c r="A85" s="2" t="str">
         <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking _gas</v>
+        <v>alternative_cooking_gas</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>33</v>
@@ -2852,23 +2852,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="85.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="10" max="11" width="19.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="31.42578125" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" customWidth="1"/>
+    <col min="14" max="15" width="30.28515625" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="27" customWidth="1"/>
-    <col min="18" max="18" width="33.5703125" customWidth="1"/>
-    <col min="19" max="19" width="28.140625" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" customWidth="1"/>
+    <col min="18" max="18" width="34.7109375" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -2917,11 +2912,11 @@
       </c>
       <c r="N1" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating _system</v>
+        <v>solar_water_heating_system</v>
       </c>
       <c r="O1" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping _system</v>
+        <v>solar_water_pumping_system</v>
       </c>
       <c r="P1" s="2" t="str">
         <f>'Program targeting'!$A$12</f>
@@ -2929,15 +2924,15 @@
       </c>
       <c r="Q1" s="2" t="str">
         <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning _units</v>
+        <v>air_conditioning_units</v>
       </c>
       <c r="R1" s="2" t="str">
         <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient _refrigetors</v>
+        <v>energy_efficient_refrigerators</v>
       </c>
       <c r="S1" s="2" t="str">
         <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking _gas</v>
+        <v>alternative_cooking_gas</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -3011,11 +3006,11 @@
       </c>
       <c r="N4" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating _system</v>
+        <v>solar_water_heating_system</v>
       </c>
       <c r="O4" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping _system</v>
+        <v>solar_water_pumping_system</v>
       </c>
       <c r="P4" s="2" t="str">
         <f>'Program targeting'!$A$12</f>
@@ -3023,15 +3018,15 @@
       </c>
       <c r="Q4" s="2" t="str">
         <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning _units</v>
+        <v>air_conditioning_units</v>
       </c>
       <c r="R4" s="2" t="str">
         <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient _refrigetors</v>
+        <v>energy_efficient_refrigerators</v>
       </c>
       <c r="S4" s="2" t="str">
         <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking _gas</v>
+        <v>alternative_cooking_gas</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3105,11 +3100,11 @@
       </c>
       <c r="N7" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating _system</v>
+        <v>solar_water_heating_system</v>
       </c>
       <c r="O7" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping _system</v>
+        <v>solar_water_pumping_system</v>
       </c>
       <c r="P7" s="2" t="str">
         <f>'Program targeting'!$A$12</f>
@@ -3117,15 +3112,15 @@
       </c>
       <c r="Q7" s="2" t="str">
         <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning _units</v>
+        <v>air_conditioning_units</v>
       </c>
       <c r="R7" s="2" t="str">
         <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient _refrigetors</v>
+        <v>energy_efficient_refrigerators</v>
       </c>
       <c r="S7" s="2" t="str">
         <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking _gas</v>
+        <v>alternative_cooking_gas</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3199,11 +3194,11 @@
       </c>
       <c r="N10" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating _system</v>
+        <v>solar_water_heating_system</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping _system</v>
+        <v>solar_water_pumping_system</v>
       </c>
       <c r="P10" s="2" t="str">
         <f>'Program targeting'!$A$12</f>
@@ -3211,15 +3206,15 @@
       </c>
       <c r="Q10" s="2" t="str">
         <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning _units</v>
+        <v>air_conditioning_units</v>
       </c>
       <c r="R10" s="2" t="str">
         <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient _refrigetors</v>
+        <v>energy_efficient_refrigerators</v>
       </c>
       <c r="S10" s="2" t="str">
         <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking _gas</v>
+        <v>alternative_cooking_gas</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -3293,11 +3288,11 @@
       </c>
       <c r="N13" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating _system</v>
+        <v>solar_water_heating_system</v>
       </c>
       <c r="O13" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping _system</v>
+        <v>solar_water_pumping_system</v>
       </c>
       <c r="P13" s="2" t="str">
         <f>'Program targeting'!$A$12</f>
@@ -3305,15 +3300,15 @@
       </c>
       <c r="Q13" s="2" t="str">
         <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning _units</v>
+        <v>air_conditioning_units</v>
       </c>
       <c r="R13" s="2" t="str">
         <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient _refrigetors</v>
+        <v>energy_efficient_refrigerators</v>
       </c>
       <c r="S13" s="2" t="str">
         <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking _gas</v>
+        <v>alternative_cooking_gas</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3387,11 +3382,11 @@
       </c>
       <c r="N16" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating _system</v>
+        <v>solar_water_heating_system</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping _system</v>
+        <v>solar_water_pumping_system</v>
       </c>
       <c r="P16" s="2" t="str">
         <f>'Program targeting'!$A$12</f>
@@ -3399,15 +3394,15 @@
       </c>
       <c r="Q16" s="2" t="str">
         <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning _units</v>
+        <v>air_conditioning_units</v>
       </c>
       <c r="R16" s="2" t="str">
         <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient _refrigetors</v>
+        <v>energy_efficient_refrigerators</v>
       </c>
       <c r="S16" s="2" t="str">
         <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking _gas</v>
+        <v>alternative_cooking_gas</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -3481,11 +3476,11 @@
       </c>
       <c r="N19" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating _system</v>
+        <v>solar_water_heating_system</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping _system</v>
+        <v>solar_water_pumping_system</v>
       </c>
       <c r="P19" s="2" t="str">
         <f>'Program targeting'!$A$12</f>
@@ -3493,15 +3488,15 @@
       </c>
       <c r="Q19" s="2" t="str">
         <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning _units</v>
+        <v>air_conditioning_units</v>
       </c>
       <c r="R19" s="2" t="str">
         <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient _refrigetors</v>
+        <v>energy_efficient_refrigerators</v>
       </c>
       <c r="S19" s="2" t="str">
         <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking _gas</v>
+        <v>alternative_cooking_gas</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -3575,11 +3570,11 @@
       </c>
       <c r="N22" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating _system</v>
+        <v>solar_water_heating_system</v>
       </c>
       <c r="O22" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping _system</v>
+        <v>solar_water_pumping_system</v>
       </c>
       <c r="P22" s="2" t="str">
         <f>'Program targeting'!$A$12</f>
@@ -3587,15 +3582,15 @@
       </c>
       <c r="Q22" s="2" t="str">
         <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning _units</v>
+        <v>air_conditioning_units</v>
       </c>
       <c r="R22" s="2" t="str">
         <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient _refrigetors</v>
+        <v>energy_efficient_refrigerators</v>
       </c>
       <c r="S22" s="2" t="str">
         <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking _gas</v>
+        <v>alternative_cooking_gas</v>
       </c>
     </row>
     <row r="23" spans="1:19">

--- a/templates/carbomica_progbook_AKHS_Mombasa.xlsx
+++ b/templates/carbomica_progbook_AKHS_Mombasa.xlsx
@@ -2852,14 +2852,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="85.28515625" customWidth="1"/>
-    <col min="2" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" customWidth="1"/>
-    <col min="10" max="11" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="15" width="30.28515625" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" customWidth="1"/>
     <col min="17" max="17" width="25.85546875" customWidth="1"/>
     <col min="18" max="18" width="34.7109375" customWidth="1"/>

--- a/templates/carbomica_progbook_AKHS_Mombasa.xlsx
+++ b/templates/carbomica_progbook_AKHS_Mombasa.xlsx
@@ -1066,7 +1066,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1079,9 +1079,13 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>solar_system</v>
@@ -1100,10 +1104,22 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1116,8 +1132,12 @@
         <v>39</v>
       </c>
       <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1130,8 +1150,12 @@
         <v>39</v>
       </c>
       <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1144,8 +1168,12 @@
         <v>39</v>
       </c>
       <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1158,8 +1186,12 @@
         <v>39</v>
       </c>
       <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1172,8 +1204,12 @@
         <v>39</v>
       </c>
       <c r="G6" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>low_gpw_anaesthetic_gases</v>
@@ -1192,10 +1228,22 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1208,8 +1256,12 @@
         <v>39</v>
       </c>
       <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1222,8 +1274,12 @@
         <v>39</v>
       </c>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1236,8 +1292,12 @@
         <v>39</v>
       </c>
       <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1250,8 +1310,12 @@
         <v>39</v>
       </c>
       <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -1264,8 +1328,12 @@
         <v>39</v>
       </c>
       <c r="G13" s="6"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>low_gpw_refridgerant_gases</v>
@@ -1284,10 +1352,22 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -1300,8 +1380,12 @@
         <v>39</v>
       </c>
       <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1314,8 +1398,12 @@
         <v>39</v>
       </c>
       <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -1328,8 +1416,12 @@
         <v>39</v>
       </c>
       <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1342,8 +1434,12 @@
         <v>39</v>
       </c>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -1356,8 +1452,12 @@
         <v>39</v>
       </c>
       <c r="G20" s="6"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>low_gpw_inhalers</v>
@@ -1376,10 +1476,22 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1392,8 +1504,12 @@
         <v>39</v>
       </c>
       <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -1406,8 +1522,12 @@
         <v>39</v>
       </c>
       <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -1420,8 +1540,12 @@
         <v>39</v>
       </c>
       <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -1434,8 +1558,12 @@
         <v>39</v>
       </c>
       <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -1448,8 +1576,12 @@
         <v>39</v>
       </c>
       <c r="G27" s="6"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>electric_vehicle</v>
@@ -1468,10 +1600,22 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1484,8 +1628,12 @@
         <v>39</v>
       </c>
       <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -1498,8 +1646,12 @@
         <v>39</v>
       </c>
       <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1512,8 +1664,12 @@
         <v>39</v>
       </c>
       <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1526,8 +1682,12 @@
         <v>39</v>
       </c>
       <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -1540,8 +1700,12 @@
         <v>39</v>
       </c>
       <c r="G34" s="6"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>waste_disposal</v>
@@ -1560,10 +1724,22 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1576,8 +1752,12 @@
         <v>39</v>
       </c>
       <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1590,8 +1770,12 @@
         <v>39</v>
       </c>
       <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -1604,8 +1788,12 @@
         <v>39</v>
       </c>
       <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1618,8 +1806,12 @@
         <v>39</v>
       </c>
       <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
@@ -1632,8 +1824,12 @@
         <v>39</v>
       </c>
       <c r="G41" s="6"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>led_lighting</v>
@@ -1652,10 +1848,22 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K43" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
@@ -1668,8 +1876,12 @@
         <v>39</v>
       </c>
       <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
@@ -1682,8 +1894,12 @@
         <v>39</v>
       </c>
       <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -1696,8 +1912,12 @@
         <v>39</v>
       </c>
       <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -1710,8 +1930,12 @@
         <v>39</v>
       </c>
       <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1724,8 +1948,12 @@
         <v>39</v>
       </c>
       <c r="G48" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
         <v>solar_water_heating_system</v>
@@ -1744,10 +1972,22 @@
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J50" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K50" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2" t="s">
         <v>37</v>
       </c>
@@ -1760,8 +2000,12 @@
         <v>39</v>
       </c>
       <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
@@ -1774,8 +2018,12 @@
         <v>39</v>
       </c>
       <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2" t="s">
         <v>42</v>
       </c>
@@ -1788,8 +2036,12 @@
         <v>39</v>
       </c>
       <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
@@ -1802,8 +2054,12 @@
         <v>39</v>
       </c>
       <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2" t="s">
         <v>46</v>
       </c>
@@ -1816,8 +2072,12 @@
         <v>39</v>
       </c>
       <c r="G55" s="6"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
         <v>solar_water_pumping_system</v>
@@ -1836,10 +2096,22 @@
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J57" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K57" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2" t="s">
         <v>37</v>
       </c>
@@ -1852,8 +2124,12 @@
         <v>39</v>
       </c>
       <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2" t="s">
         <v>40</v>
       </c>
@@ -1866,8 +2142,12 @@
         <v>39</v>
       </c>
       <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2" t="s">
         <v>42</v>
       </c>
@@ -1880,8 +2160,12 @@
         <v>39</v>
       </c>
       <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2" t="s">
         <v>44</v>
       </c>
@@ -1894,8 +2178,12 @@
         <v>39</v>
       </c>
       <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2" t="s">
         <v>46</v>
       </c>
@@ -1908,8 +2196,12 @@
         <v>39</v>
       </c>
       <c r="G62" s="6"/>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2" t="str">
         <f>'Program targeting'!$A$12</f>
         <v>water_pumps</v>
@@ -1928,10 +2220,22 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H64" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I64" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J64" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K64" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2" t="s">
         <v>37</v>
       </c>
@@ -1944,8 +2248,12 @@
         <v>39</v>
       </c>
       <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2" t="s">
         <v>40</v>
       </c>
@@ -1958,8 +2266,12 @@
         <v>39</v>
       </c>
       <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2" t="s">
         <v>42</v>
       </c>
@@ -1972,8 +2284,12 @@
         <v>39</v>
       </c>
       <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
@@ -1986,8 +2302,12 @@
         <v>39</v>
       </c>
       <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2" t="s">
         <v>46</v>
       </c>
@@ -2000,8 +2320,12 @@
         <v>39</v>
       </c>
       <c r="G69" s="6"/>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2" t="str">
         <f>'Program targeting'!$A$13</f>
         <v>air_conditioning_units</v>
@@ -2020,10 +2344,22 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H71" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I71" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J71" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K71" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2" t="s">
         <v>37</v>
       </c>
@@ -2036,8 +2372,12 @@
         <v>39</v>
       </c>
       <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2" t="s">
         <v>40</v>
       </c>
@@ -2050,8 +2390,12 @@
         <v>39</v>
       </c>
       <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2" t="s">
         <v>42</v>
       </c>
@@ -2064,8 +2408,12 @@
         <v>39</v>
       </c>
       <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2" t="s">
         <v>44</v>
       </c>
@@ -2078,8 +2426,12 @@
         <v>39</v>
       </c>
       <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2" t="s">
         <v>46</v>
       </c>
@@ -2092,8 +2444,12 @@
         <v>39</v>
       </c>
       <c r="G76" s="6"/>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2" t="str">
         <f>'Program targeting'!$A$14</f>
         <v>energy_efficient_refrigerators</v>
@@ -2112,10 +2468,22 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H78" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I78" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J78" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K78" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2" t="s">
         <v>37</v>
       </c>
@@ -2128,8 +2496,12 @@
         <v>39</v>
       </c>
       <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
@@ -2142,8 +2514,12 @@
         <v>39</v>
       </c>
       <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2" t="s">
         <v>42</v>
       </c>
@@ -2156,8 +2532,12 @@
         <v>39</v>
       </c>
       <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2" t="s">
         <v>44</v>
       </c>
@@ -2170,8 +2550,12 @@
         <v>39</v>
       </c>
       <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2" t="s">
         <v>46</v>
       </c>
@@ -2184,8 +2568,12 @@
         <v>39</v>
       </c>
       <c r="G83" s="6"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2" t="str">
         <f>'Program targeting'!$A$15</f>
         <v>alternative_cooking_gas</v>
@@ -2204,10 +2592,22 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>2024</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I85" s="2">
+        <v>2026</v>
+      </c>
+      <c r="J85" s="2">
+        <v>2027</v>
+      </c>
+      <c r="K85" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
@@ -2220,8 +2620,12 @@
         <v>39</v>
       </c>
       <c r="G86" s="6"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2" t="s">
         <v>40</v>
       </c>
@@ -2234,8 +2638,12 @@
         <v>39</v>
       </c>
       <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2656,12 @@
         <v>39</v>
       </c>
       <c r="G88" s="6"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2" t="s">
         <v>44</v>
       </c>
@@ -2262,8 +2674,12 @@
         <v>39</v>
       </c>
       <c r="G89" s="6"/>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2" t="s">
         <v>46</v>
       </c>
@@ -2276,526 +2692,530 @@
         <v>39</v>
       </c>
       <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E10">
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>COUNTIF(G10:G10,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G10:K10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="14">
-      <formula>AND(COUNTIF(G10:G10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
+      <formula>AND(COUNTIF(G10:K10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G11:K11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="16">
-      <formula>AND(COUNTIF(G11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
+      <formula>AND(COUNTIF(G11:K11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
     <cfRule type="expression" dxfId="1" priority="17">
-      <formula>COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G12:K12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="18">
-      <formula>AND(COUNTIF(G12:G12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
+      <formula>AND(COUNTIF(G12:K12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
     <cfRule type="expression" dxfId="1" priority="19">
-      <formula>COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G13:K13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="20">
-      <formula>AND(COUNTIF(G13:G13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
+      <formula>AND(COUNTIF(G13:K13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
     <cfRule type="expression" dxfId="1" priority="21">
-      <formula>COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G16:K16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="22">
-      <formula>AND(COUNTIF(G16:G16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
+      <formula>AND(COUNTIF(G16:K16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
     <cfRule type="expression" dxfId="1" priority="23">
-      <formula>COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G17:K17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="24">
-      <formula>AND(COUNTIF(G17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+      <formula>AND(COUNTIF(G17:K17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
     <cfRule type="expression" dxfId="1" priority="25">
-      <formula>COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G18:K18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="26">
-      <formula>AND(COUNTIF(G18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
+      <formula>AND(COUNTIF(G18:K18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
     <cfRule type="expression" dxfId="1" priority="27">
-      <formula>COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G19:K19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="28">
-      <formula>AND(COUNTIF(G19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
+      <formula>AND(COUNTIF(G19:K19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(COUNTIF(G2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+      <formula>AND(COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
     <cfRule type="expression" dxfId="1" priority="29">
-      <formula>COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G20:K20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="30">
-      <formula>AND(COUNTIF(G20:G20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
+      <formula>AND(COUNTIF(G20:K20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
     <cfRule type="expression" dxfId="1" priority="31">
-      <formula>COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="32">
-      <formula>AND(COUNTIF(G23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+      <formula>AND(COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
     <cfRule type="expression" dxfId="1" priority="33">
-      <formula>COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G24:K24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="34">
-      <formula>AND(COUNTIF(G24:G24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
+      <formula>AND(COUNTIF(G24:K24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
     <cfRule type="expression" dxfId="1" priority="35">
-      <formula>COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G25:K25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="36">
-      <formula>AND(COUNTIF(G25:G25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
+      <formula>AND(COUNTIF(G25:K25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
     <cfRule type="expression" dxfId="1" priority="37">
-      <formula>COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G26:K26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="38">
-      <formula>AND(COUNTIF(G26:G26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
+      <formula>AND(COUNTIF(G26:K26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
     <cfRule type="expression" dxfId="1" priority="39">
-      <formula>COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G27:K27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="40">
-      <formula>AND(COUNTIF(G27:G27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
+      <formula>AND(COUNTIF(G27:K27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G3:K3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(COUNTIF(G3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
+      <formula>AND(COUNTIF(G3:K3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
     <cfRule type="expression" dxfId="1" priority="41">
-      <formula>COUNTIF(G30:G30,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G30:K30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="42">
-      <formula>AND(COUNTIF(G30:G30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E30)))</formula>
+      <formula>AND(COUNTIF(G30:K30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
     <cfRule type="expression" dxfId="1" priority="43">
-      <formula>COUNTIF(G31:G31,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G31:K31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="44">
-      <formula>AND(COUNTIF(G31:G31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E31)))</formula>
+      <formula>AND(COUNTIF(G31:K31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="1" priority="45">
-      <formula>COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G32:K32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="46">
-      <formula>AND(COUNTIF(G32:G32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
+      <formula>AND(COUNTIF(G32:K32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="1" priority="47">
-      <formula>COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G33:K33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="48">
-      <formula>AND(COUNTIF(G33:G33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
+      <formula>AND(COUNTIF(G33:K33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
     <cfRule type="expression" dxfId="1" priority="49">
-      <formula>COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G34:K34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="50">
-      <formula>AND(COUNTIF(G34:G34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
+      <formula>AND(COUNTIF(G34:K34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
     <cfRule type="expression" dxfId="1" priority="51">
-      <formula>COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G37:K37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="52">
-      <formula>AND(COUNTIF(G37:G37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
+      <formula>AND(COUNTIF(G37:K37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
     <cfRule type="expression" dxfId="1" priority="53">
-      <formula>COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G38:K38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="54">
-      <formula>AND(COUNTIF(G38:G38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
+      <formula>AND(COUNTIF(G38:K38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
     <cfRule type="expression" dxfId="1" priority="55">
-      <formula>COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G39:K39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="56">
-      <formula>AND(COUNTIF(G39:G39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
+      <formula>AND(COUNTIF(G39:K39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G4:K4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>AND(COUNTIF(G4:G4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
+      <formula>AND(COUNTIF(G4:K4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
     <cfRule type="expression" dxfId="1" priority="57">
-      <formula>COUNTIF(G40:G40,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G40:K40,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="58">
-      <formula>AND(COUNTIF(G40:G40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E40)))</formula>
+      <formula>AND(COUNTIF(G40:K40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
     <cfRule type="expression" dxfId="1" priority="59">
-      <formula>COUNTIF(G41:G41,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G41:K41,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="60">
-      <formula>AND(COUNTIF(G41:G41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E41)))</formula>
+      <formula>AND(COUNTIF(G41:K41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
     <cfRule type="expression" dxfId="1" priority="61">
-      <formula>COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G44:K44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="62">
-      <formula>AND(COUNTIF(G44:G44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
+      <formula>AND(COUNTIF(G44:K44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
     <cfRule type="expression" dxfId="1" priority="63">
-      <formula>COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G45:K45,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="64">
-      <formula>AND(COUNTIF(G45:G45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
+      <formula>AND(COUNTIF(G45:K45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
     <cfRule type="expression" dxfId="1" priority="65">
-      <formula>COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G46:K46,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="66">
-      <formula>AND(COUNTIF(G46:G46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
+      <formula>AND(COUNTIF(G46:K46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
     <cfRule type="expression" dxfId="1" priority="67">
-      <formula>COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G47:K47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="68">
-      <formula>AND(COUNTIF(G47:G47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
+      <formula>AND(COUNTIF(G47:K47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
     <cfRule type="expression" dxfId="1" priority="69">
-      <formula>COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G48:K48,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="70">
-      <formula>AND(COUNTIF(G48:G48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
+      <formula>AND(COUNTIF(G48:K48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="8">
-      <formula>AND(COUNTIF(G5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+      <formula>AND(COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
     <cfRule type="expression" dxfId="1" priority="71">
-      <formula>COUNTIF(G51:G51,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G51:K51,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="72">
-      <formula>AND(COUNTIF(G51:G51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E51)))</formula>
+      <formula>AND(COUNTIF(G51:K51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
     <cfRule type="expression" dxfId="1" priority="73">
-      <formula>COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G52:K52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="74">
-      <formula>AND(COUNTIF(G52:G52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
+      <formula>AND(COUNTIF(G52:K52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
     <cfRule type="expression" dxfId="1" priority="75">
-      <formula>COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G53:K53,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="76">
-      <formula>AND(COUNTIF(G53:G53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
+      <formula>AND(COUNTIF(G53:K53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
     <cfRule type="expression" dxfId="1" priority="77">
-      <formula>COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G54:K54,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="78">
-      <formula>AND(COUNTIF(G54:G54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
+      <formula>AND(COUNTIF(G54:K54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
     <cfRule type="expression" dxfId="1" priority="79">
-      <formula>COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G55:K55,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="80">
-      <formula>AND(COUNTIF(G55:G55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
+      <formula>AND(COUNTIF(G55:K55,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
     <cfRule type="expression" dxfId="1" priority="81">
-      <formula>COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G58:K58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="82">
-      <formula>AND(COUNTIF(G58:G58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E58)))</formula>
+      <formula>AND(COUNTIF(G58:K58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
     <cfRule type="expression" dxfId="1" priority="83">
-      <formula>COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G59:K59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="84">
-      <formula>AND(COUNTIF(G59:G59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E59)))</formula>
+      <formula>AND(COUNTIF(G59:K59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G6:K6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="10">
-      <formula>AND(COUNTIF(G6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
+      <formula>AND(COUNTIF(G6:K6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
     <cfRule type="expression" dxfId="1" priority="85">
-      <formula>COUNTIF(G60:G60,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G60:K60,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="86">
-      <formula>AND(COUNTIF(G60:G60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E60)))</formula>
+      <formula>AND(COUNTIF(G60:K60,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
     <cfRule type="expression" dxfId="1" priority="87">
-      <formula>COUNTIF(G61:G61,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G61:K61,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="88">
-      <formula>AND(COUNTIF(G61:G61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E61)))</formula>
+      <formula>AND(COUNTIF(G61:K61,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
     <cfRule type="expression" dxfId="1" priority="89">
-      <formula>COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G62:K62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="90">
-      <formula>AND(COUNTIF(G62:G62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E62)))</formula>
+      <formula>AND(COUNTIF(G62:K62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
     <cfRule type="expression" dxfId="1" priority="91">
-      <formula>COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G65:K65,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="92">
-      <formula>AND(COUNTIF(G65:G65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E65)))</formula>
+      <formula>AND(COUNTIF(G65:K65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
     <cfRule type="expression" dxfId="1" priority="93">
-      <formula>COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G66:K66,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="94">
-      <formula>AND(COUNTIF(G66:G66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E66)))</formula>
+      <formula>AND(COUNTIF(G66:K66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
     <cfRule type="expression" dxfId="1" priority="95">
-      <formula>COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G67:K67,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="96">
-      <formula>AND(COUNTIF(G67:G67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E67)))</formula>
+      <formula>AND(COUNTIF(G67:K67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
     <cfRule type="expression" dxfId="1" priority="97">
-      <formula>COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G68:K68,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="98">
-      <formula>AND(COUNTIF(G68:G68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E68)))</formula>
+      <formula>AND(COUNTIF(G68:K68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
     <cfRule type="expression" dxfId="1" priority="99">
-      <formula>COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G69:K69,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="100">
-      <formula>AND(COUNTIF(G69:G69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E69)))</formula>
+      <formula>AND(COUNTIF(G69:K69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
     <cfRule type="expression" dxfId="1" priority="101">
-      <formula>COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G72:K72,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="102">
-      <formula>AND(COUNTIF(G72:G72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E72)))</formula>
+      <formula>AND(COUNTIF(G72:K72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
     <cfRule type="expression" dxfId="1" priority="103">
-      <formula>COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G73:K73,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="104">
-      <formula>AND(COUNTIF(G73:G73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E73)))</formula>
+      <formula>AND(COUNTIF(G73:K73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
     <cfRule type="expression" dxfId="1" priority="105">
-      <formula>COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G74:K74,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="106">
-      <formula>AND(COUNTIF(G74:G74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E74)))</formula>
+      <formula>AND(COUNTIF(G74:K74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
     <cfRule type="expression" dxfId="1" priority="107">
-      <formula>COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G75:K75,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="108">
-      <formula>AND(COUNTIF(G75:G75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E75)))</formula>
+      <formula>AND(COUNTIF(G75:K75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
     <cfRule type="expression" dxfId="1" priority="109">
-      <formula>COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G76:K76,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="110">
-      <formula>AND(COUNTIF(G76:G76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E76)))</formula>
+      <formula>AND(COUNTIF(G76:K76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
     <cfRule type="expression" dxfId="1" priority="111">
-      <formula>COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G79:K79,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="112">
-      <formula>AND(COUNTIF(G79:G79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E79)))</formula>
+      <formula>AND(COUNTIF(G79:K79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
     <cfRule type="expression" dxfId="1" priority="113">
-      <formula>COUNTIF(G80:G80,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G80:K80,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="114">
-      <formula>AND(COUNTIF(G80:G80,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E80)))</formula>
+      <formula>AND(COUNTIF(G80:K80,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
     <cfRule type="expression" dxfId="1" priority="115">
-      <formula>COUNTIF(G81:G81,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G81:K81,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="116">
-      <formula>AND(COUNTIF(G81:G81,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E81)))</formula>
+      <formula>AND(COUNTIF(G81:K81,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
     <cfRule type="expression" dxfId="1" priority="117">
-      <formula>COUNTIF(G82:G82,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G82:K82,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="118">
-      <formula>AND(COUNTIF(G82:G82,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E82)))</formula>
+      <formula>AND(COUNTIF(G82:K82,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
     <cfRule type="expression" dxfId="1" priority="119">
-      <formula>COUNTIF(G83:G83,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G83:K83,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="120">
-      <formula>AND(COUNTIF(G83:G83,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E83)))</formula>
+      <formula>AND(COUNTIF(G83:K83,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
     <cfRule type="expression" dxfId="1" priority="121">
-      <formula>COUNTIF(G86:G86,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G86:K86,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="122">
-      <formula>AND(COUNTIF(G86:G86,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E86)))</formula>
+      <formula>AND(COUNTIF(G86:K86,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
     <cfRule type="expression" dxfId="1" priority="123">
-      <formula>COUNTIF(G87:G87,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G87:K87,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="124">
-      <formula>AND(COUNTIF(G87:G87,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E87)))</formula>
+      <formula>AND(COUNTIF(G87:K87,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
     <cfRule type="expression" dxfId="1" priority="125">
-      <formula>COUNTIF(G88:G88,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G88:K88,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="126">
-      <formula>AND(COUNTIF(G88:G88,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E88)))</formula>
+      <formula>AND(COUNTIF(G88:K88,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
     <cfRule type="expression" dxfId="1" priority="127">
-      <formula>COUNTIF(G89:G89,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G89:K89,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="128">
-      <formula>AND(COUNTIF(G89:G89,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E89)))</formula>
+      <formula>AND(COUNTIF(G89:K89,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G9:K9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="12">
-      <formula>AND(COUNTIF(G9:G9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
+      <formula>AND(COUNTIF(G9:K9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
     <cfRule type="expression" dxfId="1" priority="129">
-      <formula>COUNTIF(G90:G90,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G90:K90,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="130">
-      <formula>AND(COUNTIF(G90:G90,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E90)))</formula>
+      <formula>AND(COUNTIF(G90:K90,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">

--- a/templates/carbomica_progbook_AKHS_Mombasa.xlsx
+++ b/templates/carbomica_progbook_AKHS_Mombasa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="53">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -36,85 +36,61 @@
     <t>Number of facilities in group</t>
   </si>
   <si>
-    <t>solar_system</t>
-  </si>
-  <si>
-    <t>PV Solar System</t>
+    <t>Recycling_WasteSegregation</t>
+  </si>
+  <si>
+    <t>Recycling, Waste segregation</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>low_gpw_anaesthetic_gases</t>
-  </si>
-  <si>
-    <t>Low GPW Anaesthetics</t>
-  </si>
-  <si>
-    <t>low_gpw_refridgerant_gases</t>
-  </si>
-  <si>
-    <t>Low GPW Refrigerants</t>
-  </si>
-  <si>
-    <t>low_gpw_inhalers</t>
-  </si>
-  <si>
-    <t>Low GPW Inhalers</t>
-  </si>
-  <si>
-    <t>electric_vehicle</t>
-  </si>
-  <si>
-    <t>Hybrid/Electric Vehicles</t>
-  </si>
-  <si>
-    <t>waste_disposal</t>
-  </si>
-  <si>
-    <t>Alt. Waste Disposal</t>
-  </si>
-  <si>
-    <t>led_lighting</t>
-  </si>
-  <si>
-    <t>LED Lights Replace</t>
-  </si>
-  <si>
-    <t>solar_water_heating_system</t>
-  </si>
-  <si>
-    <t>Solar Water Heat</t>
-  </si>
-  <si>
-    <t>solar_water_pumping_system</t>
-  </si>
-  <si>
-    <t>Solar Water Pump</t>
-  </si>
-  <si>
-    <t>water_pumps</t>
-  </si>
-  <si>
-    <t>VFDs for Pumps</t>
-  </si>
-  <si>
-    <t>air_conditioning_units</t>
-  </si>
-  <si>
-    <t>Efficient AC Units</t>
-  </si>
-  <si>
-    <t>energy_efficient_refrigerators</t>
-  </si>
-  <si>
-    <t>Efficient Fridges</t>
-  </si>
-  <si>
-    <t>alternative_cooking_gas</t>
-  </si>
-  <si>
-    <t>Renewable LPG</t>
+    <t>SolarSystem_Installation</t>
+  </si>
+  <si>
+    <t>Solar system</t>
+  </si>
+  <si>
+    <t>Efficient_Chillers_Upgrade</t>
+  </si>
+  <si>
+    <t>Upgrade to more efficient chillers/VRFs/Split units</t>
+  </si>
+  <si>
+    <t>Lighting_Efficiency</t>
+  </si>
+  <si>
+    <t>Use energy efficient LED bulbs; Implement lighting controls (occupancy sensors, timers, dimmers/centralized switch)</t>
+  </si>
+  <si>
+    <t>LowGWP_Refrigerants</t>
+  </si>
+  <si>
+    <t>Use low GWP refrigerants (R410 - CO2)</t>
+  </si>
+  <si>
+    <t>Hybrid_Car_Use</t>
+  </si>
+  <si>
+    <t>Use Hybrid cars</t>
+  </si>
+  <si>
+    <t>LowGWP_Inhalers</t>
+  </si>
+  <si>
+    <t>Encourage use of low GWP inhalers (Ventolin Evohaler Sulbatomol to Dry powder)</t>
+  </si>
+  <si>
+    <t>LowGWP_AnaestheticGases</t>
+  </si>
+  <si>
+    <t>Use low GWP anaesthetic gases (Nitrogen oxide to Isoflurane)</t>
+  </si>
+  <si>
+    <t>Staff_Training_Awareness</t>
+  </si>
+  <si>
+    <t>Staff training and awareness; Conservation and reduction Operation activities for all emissions</t>
   </si>
   <si>
     <t>Provenance</t>
@@ -174,13 +150,19 @@
     <t>Additive</t>
   </si>
   <si>
-    <t>Bottled gas(LPG) - multiplier</t>
+    <t>Grid gas - multiplier</t>
+  </si>
+  <si>
+    <t>Bottled gas (LPG) - multiplier</t>
+  </si>
+  <si>
+    <t>Liquid fuel (Petrol or Diesel) - multiplier</t>
   </si>
   <si>
     <t>Vehicle Fuel (Owned Vehicles) - multiplier</t>
   </si>
   <si>
-    <t>Business travel (Taxi,Car hires, Train, Airtravel or local bus) - multiplier</t>
+    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - multiplier</t>
   </si>
   <si>
     <t>Anaesthetic gases - multiplier</t>
@@ -633,14 +615,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="128.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
@@ -793,62 +775,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
@@ -860,26 +786,6 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
@@ -925,26 +831,6 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Y"</formula>
@@ -980,7 +866,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="26">
+  <dataValidations count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"Y,N"</formula1>
     </dataValidation>
@@ -1035,30 +921,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1066,41 +928,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="7" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>solar_system</v>
+        <v>Recycling_WasteSegregation</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2">
@@ -1121,15 +979,15 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1139,15 +997,15 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1157,15 +1015,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1175,15 +1033,15 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1193,15 +1051,15 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1212,19 +1070,19 @@
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_gpw_anaesthetic_gases</v>
+        <v>SolarSystem_Installation</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1245,15 +1103,15 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1263,15 +1121,15 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1281,15 +1139,15 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1299,15 +1157,15 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1317,15 +1175,15 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1336,19 +1194,19 @@
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>low_gpw_refridgerant_gases</v>
+        <v>Efficient_Chillers_Upgrade</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1369,15 +1227,15 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1387,15 +1245,15 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -1405,15 +1263,15 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -1423,15 +1281,15 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1441,15 +1299,15 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1460,19 +1318,19 @@
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_gpw_inhalers</v>
+        <v>Lighting_Efficiency</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1493,15 +1351,15 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1511,15 +1369,15 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
       <c r="F24" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1529,15 +1387,15 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1547,15 +1405,15 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1565,15 +1423,15 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1584,19 +1442,19 @@
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>electric_vehicle</v>
+        <v>LowGWP_Refrigerants</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -1617,15 +1475,15 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1635,15 +1493,15 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1653,15 +1511,15 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1671,15 +1529,15 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
       <c r="F33" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1689,15 +1547,15 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1708,19 +1566,19 @@
     <row r="36" spans="1:11">
       <c r="A36" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>waste_disposal</v>
+        <v>Hybrid_Car_Use</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
@@ -1741,15 +1599,15 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
       <c r="F37" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1759,15 +1617,15 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1777,15 +1635,15 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1795,15 +1653,15 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -1813,15 +1671,15 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1832,19 +1690,19 @@
     <row r="43" spans="1:11">
       <c r="A43" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>led_lighting</v>
+        <v>LowGWP_Inhalers</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
@@ -1865,15 +1723,15 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -1883,15 +1741,15 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -1901,15 +1759,15 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -1919,15 +1777,15 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -1937,15 +1795,15 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -1956,19 +1814,19 @@
     <row r="50" spans="1:11">
       <c r="A50" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating_system</v>
+        <v>LowGWP_AnaestheticGases</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2">
@@ -1989,15 +1847,15 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
       <c r="F51" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -2007,15 +1865,15 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -2025,15 +1883,15 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -2043,15 +1901,15 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
       <c r="F54" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -2061,15 +1919,15 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
       <c r="F55" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -2080,19 +1938,19 @@
     <row r="57" spans="1:11">
       <c r="A57" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping_system</v>
+        <v>Staff_Training_Awareness</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2">
@@ -2113,15 +1971,15 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
       <c r="F58" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -2131,15 +1989,15 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -2149,15 +2007,15 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -2167,15 +2025,15 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
       <c r="F61" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -2185,15 +2043,15 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
       <c r="F62" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -2201,502 +2059,6 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2" t="str">
-        <f>'Program targeting'!$A$12</f>
-        <v>water_pumps</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H64" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I64" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J64" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K64" s="2">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="2" t="str">
-        <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning_units</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H71" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I71" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J71" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K71" s="2">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" t="s">
-        <v>45</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="2" t="str">
-        <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient_refrigerators</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H78" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I78" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J78" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K78" s="2">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" t="s">
-        <v>38</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" t="s">
-        <v>41</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C82" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" t="s">
-        <v>43</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="2" t="str">
-        <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking_gas</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2">
-        <v>2024</v>
-      </c>
-      <c r="H85" s="2">
-        <v>2025</v>
-      </c>
-      <c r="I85" s="2">
-        <v>2026</v>
-      </c>
-      <c r="J85" s="2">
-        <v>2027</v>
-      </c>
-      <c r="K85" s="2">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" t="s">
-        <v>41</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C88" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C89" t="s">
-        <v>45</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="E10">
     <cfRule type="expression" dxfId="1" priority="13">
@@ -3050,158 +2412,6 @@
       <formula>AND(COUNTIF(G62:K62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="1" priority="91">
-      <formula>COUNTIF(G65:K65,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="92">
-      <formula>AND(COUNTIF(G65:K65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="1" priority="93">
-      <formula>COUNTIF(G66:K66,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="94">
-      <formula>AND(COUNTIF(G66:K66,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="1" priority="95">
-      <formula>COUNTIF(G67:K67,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="96">
-      <formula>AND(COUNTIF(G67:K67,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="1" priority="97">
-      <formula>COUNTIF(G68:K68,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="98">
-      <formula>AND(COUNTIF(G68:K68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="1" priority="99">
-      <formula>COUNTIF(G69:K69,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="100">
-      <formula>AND(COUNTIF(G69:K69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="1" priority="101">
-      <formula>COUNTIF(G72:K72,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="102">
-      <formula>AND(COUNTIF(G72:K72,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="1" priority="103">
-      <formula>COUNTIF(G73:K73,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="104">
-      <formula>AND(COUNTIF(G73:K73,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="1" priority="105">
-      <formula>COUNTIF(G74:K74,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="106">
-      <formula>AND(COUNTIF(G74:K74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="1" priority="107">
-      <formula>COUNTIF(G75:K75,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="108">
-      <formula>AND(COUNTIF(G75:K75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="1" priority="109">
-      <formula>COUNTIF(G76:K76,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="110">
-      <formula>AND(COUNTIF(G76:K76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="1" priority="111">
-      <formula>COUNTIF(G79:K79,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="112">
-      <formula>AND(COUNTIF(G79:K79,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E79)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="1" priority="113">
-      <formula>COUNTIF(G80:K80,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="114">
-      <formula>AND(COUNTIF(G80:K80,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E80)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" dxfId="1" priority="115">
-      <formula>COUNTIF(G81:K81,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="116">
-      <formula>AND(COUNTIF(G81:K81,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E81)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="1" priority="117">
-      <formula>COUNTIF(G82:K82,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="118">
-      <formula>AND(COUNTIF(G82:K82,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="1" priority="119">
-      <formula>COUNTIF(G83:K83,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="120">
-      <formula>AND(COUNTIF(G83:K83,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="expression" dxfId="1" priority="121">
-      <formula>COUNTIF(G86:K86,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="122">
-      <formula>AND(COUNTIF(G86:K86,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E86)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="1" priority="123">
-      <formula>COUNTIF(G87:K87,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="124">
-      <formula>AND(COUNTIF(G87:K87,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="expression" dxfId="1" priority="125">
-      <formula>COUNTIF(G88:K88,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="126">
-      <formula>AND(COUNTIF(G88:K88,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="1" priority="127">
-      <formula>COUNTIF(G89:K89,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="128">
-      <formula>AND(COUNTIF(G89:K89,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E89)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E9">
     <cfRule type="expression" dxfId="1" priority="11">
       <formula>COUNTIF(G9:K9,"&lt;&gt;" &amp; "")&gt;0</formula>
@@ -3210,15 +2420,7 @@
       <formula>AND(COUNTIF(G9:K9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="1" priority="129">
-      <formula>COUNTIF(G90:K90,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="130">
-      <formula>AND(COUNTIF(G90:K90,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E90)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="13">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
@@ -3246,18 +2448,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59">
       <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C73">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C80">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3265,109 +2455,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="85.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="10" max="11" width="22.5703125" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" customWidth="1"/>
-    <col min="18" max="18" width="34.7109375" customWidth="1"/>
-    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>solar_system</v>
+        <v>Recycling_WasteSegregation</v>
       </c>
       <c r="H1" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_gpw_anaesthetic_gases</v>
+        <v>SolarSystem_Installation</v>
       </c>
       <c r="I1" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>low_gpw_refridgerant_gases</v>
+        <v>Efficient_Chillers_Upgrade</v>
       </c>
       <c r="J1" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_gpw_inhalers</v>
+        <v>Lighting_Efficiency</v>
       </c>
       <c r="K1" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>electric_vehicle</v>
+        <v>LowGWP_Refrigerants</v>
       </c>
       <c r="L1" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>waste_disposal</v>
+        <v>Hybrid_Car_Use</v>
       </c>
       <c r="M1" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>led_lighting</v>
+        <v>LowGWP_Inhalers</v>
       </c>
       <c r="N1" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating_system</v>
+        <v>LowGWP_AnaestheticGases</v>
       </c>
       <c r="O1" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping_system</v>
-      </c>
-      <c r="P1" s="2" t="str">
-        <f>'Program targeting'!$A$12</f>
-        <v>water_pumps</v>
-      </c>
-      <c r="Q1" s="2" t="str">
-        <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning_units</v>
-      </c>
-      <c r="R1" s="2" t="str">
-        <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient_refrigerators</v>
-      </c>
-      <c r="S1" s="2" t="str">
-        <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking_gas</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>Staff_Training_Awareness</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Aga Khan Hospital, Mombasa</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -3380,88 +2546,68 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="4" spans="1:19">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>solar_system</v>
+        <v>Recycling_WasteSegregation</v>
       </c>
       <c r="H4" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_gpw_anaesthetic_gases</v>
+        <v>SolarSystem_Installation</v>
       </c>
       <c r="I4" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>low_gpw_refridgerant_gases</v>
+        <v>Efficient_Chillers_Upgrade</v>
       </c>
       <c r="J4" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_gpw_inhalers</v>
+        <v>Lighting_Efficiency</v>
       </c>
       <c r="K4" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>electric_vehicle</v>
+        <v>LowGWP_Refrigerants</v>
       </c>
       <c r="L4" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>waste_disposal</v>
+        <v>Hybrid_Car_Use</v>
       </c>
       <c r="M4" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>led_lighting</v>
+        <v>LowGWP_Inhalers</v>
       </c>
       <c r="N4" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating_system</v>
+        <v>LowGWP_AnaestheticGases</v>
       </c>
       <c r="O4" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping_system</v>
-      </c>
-      <c r="P4" s="2" t="str">
-        <f>'Program targeting'!$A$12</f>
-        <v>water_pumps</v>
-      </c>
-      <c r="Q4" s="2" t="str">
-        <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning_units</v>
-      </c>
-      <c r="R4" s="2" t="str">
-        <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient_refrigerators</v>
-      </c>
-      <c r="S4" s="2" t="str">
-        <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking_gas</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>Staff_Training_Awareness</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Aga Khan Hospital, Mombasa</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -3474,88 +2620,68 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="7" spans="1:19">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>solar_system</v>
+        <v>Recycling_WasteSegregation</v>
       </c>
       <c r="H7" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_gpw_anaesthetic_gases</v>
+        <v>SolarSystem_Installation</v>
       </c>
       <c r="I7" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>low_gpw_refridgerant_gases</v>
+        <v>Efficient_Chillers_Upgrade</v>
       </c>
       <c r="J7" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_gpw_inhalers</v>
+        <v>Lighting_Efficiency</v>
       </c>
       <c r="K7" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>electric_vehicle</v>
+        <v>LowGWP_Refrigerants</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>waste_disposal</v>
+        <v>Hybrid_Car_Use</v>
       </c>
       <c r="M7" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>led_lighting</v>
+        <v>LowGWP_Inhalers</v>
       </c>
       <c r="N7" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating_system</v>
+        <v>LowGWP_AnaestheticGases</v>
       </c>
       <c r="O7" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping_system</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f>'Program targeting'!$A$12</f>
-        <v>water_pumps</v>
-      </c>
-      <c r="Q7" s="2" t="str">
-        <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning_units</v>
-      </c>
-      <c r="R7" s="2" t="str">
-        <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient_refrigerators</v>
-      </c>
-      <c r="S7" s="2" t="str">
-        <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking_gas</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>Staff_Training_Awareness</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Aga Khan Hospital, Mombasa</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -3568,88 +2694,68 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="10" spans="1:19">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>solar_system</v>
+        <v>Recycling_WasteSegregation</v>
       </c>
       <c r="H10" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_gpw_anaesthetic_gases</v>
+        <v>SolarSystem_Installation</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>low_gpw_refridgerant_gases</v>
+        <v>Efficient_Chillers_Upgrade</v>
       </c>
       <c r="J10" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_gpw_inhalers</v>
+        <v>Lighting_Efficiency</v>
       </c>
       <c r="K10" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>electric_vehicle</v>
+        <v>LowGWP_Refrigerants</v>
       </c>
       <c r="L10" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>waste_disposal</v>
+        <v>Hybrid_Car_Use</v>
       </c>
       <c r="M10" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>led_lighting</v>
+        <v>LowGWP_Inhalers</v>
       </c>
       <c r="N10" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating_system</v>
+        <v>LowGWP_AnaestheticGases</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping_system</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f>'Program targeting'!$A$12</f>
-        <v>water_pumps</v>
-      </c>
-      <c r="Q10" s="2" t="str">
-        <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning_units</v>
-      </c>
-      <c r="R10" s="2" t="str">
-        <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient_refrigerators</v>
-      </c>
-      <c r="S10" s="2" t="str">
-        <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking_gas</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>Staff_Training_Awareness</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Aga Khan Hospital, Mombasa</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3662,88 +2768,68 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="13" spans="1:19">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>solar_system</v>
+        <v>Recycling_WasteSegregation</v>
       </c>
       <c r="H13" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_gpw_anaesthetic_gases</v>
+        <v>SolarSystem_Installation</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>low_gpw_refridgerant_gases</v>
+        <v>Efficient_Chillers_Upgrade</v>
       </c>
       <c r="J13" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_gpw_inhalers</v>
+        <v>Lighting_Efficiency</v>
       </c>
       <c r="K13" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>electric_vehicle</v>
+        <v>LowGWP_Refrigerants</v>
       </c>
       <c r="L13" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>waste_disposal</v>
+        <v>Hybrid_Car_Use</v>
       </c>
       <c r="M13" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>led_lighting</v>
+        <v>LowGWP_Inhalers</v>
       </c>
       <c r="N13" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating_system</v>
+        <v>LowGWP_AnaestheticGases</v>
       </c>
       <c r="O13" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping_system</v>
-      </c>
-      <c r="P13" s="2" t="str">
-        <f>'Program targeting'!$A$12</f>
-        <v>water_pumps</v>
-      </c>
-      <c r="Q13" s="2" t="str">
-        <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning_units</v>
-      </c>
-      <c r="R13" s="2" t="str">
-        <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient_refrigerators</v>
-      </c>
-      <c r="S13" s="2" t="str">
-        <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking_gas</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>Staff_Training_Awareness</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Aga Khan Hospital, Mombasa</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3756,88 +2842,68 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-    </row>
-    <row r="16" spans="1:19">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>solar_system</v>
+        <v>Recycling_WasteSegregation</v>
       </c>
       <c r="H16" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_gpw_anaesthetic_gases</v>
+        <v>SolarSystem_Installation</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>low_gpw_refridgerant_gases</v>
+        <v>Efficient_Chillers_Upgrade</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_gpw_inhalers</v>
+        <v>Lighting_Efficiency</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>electric_vehicle</v>
+        <v>LowGWP_Refrigerants</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>waste_disposal</v>
+        <v>Hybrid_Car_Use</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>led_lighting</v>
+        <v>LowGWP_Inhalers</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating_system</v>
+        <v>LowGWP_AnaestheticGases</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping_system</v>
-      </c>
-      <c r="P16" s="2" t="str">
-        <f>'Program targeting'!$A$12</f>
-        <v>water_pumps</v>
-      </c>
-      <c r="Q16" s="2" t="str">
-        <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning_units</v>
-      </c>
-      <c r="R16" s="2" t="str">
-        <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient_refrigerators</v>
-      </c>
-      <c r="S16" s="2" t="str">
-        <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking_gas</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>Staff_Training_Awareness</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Aga Khan Hospital, Mombasa</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -3850,88 +2916,68 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-    </row>
-    <row r="19" spans="1:19">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G19" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>solar_system</v>
+        <v>Recycling_WasteSegregation</v>
       </c>
       <c r="H19" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_gpw_anaesthetic_gases</v>
+        <v>SolarSystem_Installation</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>low_gpw_refridgerant_gases</v>
+        <v>Efficient_Chillers_Upgrade</v>
       </c>
       <c r="J19" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_gpw_inhalers</v>
+        <v>Lighting_Efficiency</v>
       </c>
       <c r="K19" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>electric_vehicle</v>
+        <v>LowGWP_Refrigerants</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>waste_disposal</v>
+        <v>Hybrid_Car_Use</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>led_lighting</v>
+        <v>LowGWP_Inhalers</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating_system</v>
+        <v>LowGWP_AnaestheticGases</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping_system</v>
-      </c>
-      <c r="P19" s="2" t="str">
-        <f>'Program targeting'!$A$12</f>
-        <v>water_pumps</v>
-      </c>
-      <c r="Q19" s="2" t="str">
-        <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning_units</v>
-      </c>
-      <c r="R19" s="2" t="str">
-        <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient_refrigerators</v>
-      </c>
-      <c r="S19" s="2" t="str">
-        <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking_gas</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>Staff_Training_Awareness</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Aga Khan Hospital, Mombasa</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3944,88 +2990,68 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-    </row>
-    <row r="22" spans="1:19">
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G22" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
-        <v>solar_system</v>
+        <v>Recycling_WasteSegregation</v>
       </c>
       <c r="H22" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
-        <v>low_gpw_anaesthetic_gases</v>
+        <v>SolarSystem_Installation</v>
       </c>
       <c r="I22" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
-        <v>low_gpw_refridgerant_gases</v>
+        <v>Efficient_Chillers_Upgrade</v>
       </c>
       <c r="J22" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
-        <v>low_gpw_inhalers</v>
+        <v>Lighting_Efficiency</v>
       </c>
       <c r="K22" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
-        <v>electric_vehicle</v>
+        <v>LowGWP_Refrigerants</v>
       </c>
       <c r="L22" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
-        <v>waste_disposal</v>
+        <v>Hybrid_Car_Use</v>
       </c>
       <c r="M22" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
-        <v>led_lighting</v>
+        <v>LowGWP_Inhalers</v>
       </c>
       <c r="N22" s="2" t="str">
         <f>'Program targeting'!$A$10</f>
-        <v>solar_water_heating_system</v>
+        <v>LowGWP_AnaestheticGases</v>
       </c>
       <c r="O22" s="2" t="str">
         <f>'Program targeting'!$A$11</f>
-        <v>solar_water_pumping_system</v>
-      </c>
-      <c r="P22" s="2" t="str">
-        <f>'Program targeting'!$A$12</f>
-        <v>water_pumps</v>
-      </c>
-      <c r="Q22" s="2" t="str">
-        <f>'Program targeting'!$A$13</f>
-        <v>air_conditioning_units</v>
-      </c>
-      <c r="R22" s="2" t="str">
-        <f>'Program targeting'!$A$14</f>
-        <v>energy_efficient_refrigerators</v>
-      </c>
-      <c r="S22" s="2" t="str">
-        <f>'Program targeting'!$A$15</f>
-        <v>alternative_cooking_gas</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>Staff_Training_Awareness</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Aga Khan Hospital, Mombasa</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -4038,97 +3064,257 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>Recycling_WasteSegregation</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>SolarSystem_Installation</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>Efficient_Chillers_Upgrade</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>Lighting_Efficiency</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>LowGWP_Refrigerants</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>Hybrid_Car_Use</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>LowGWP_Inhalers</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>LowGWP_AnaestheticGases</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f>'Program targeting'!$A$11</f>
+        <v>Staff_Training_Awareness</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Mombasa</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>Recycling_WasteSegregation</v>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>SolarSystem_Installation</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>Efficient_Chillers_Upgrade</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>Lighting_Efficiency</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>LowGWP_Refrigerants</v>
+      </c>
+      <c r="L28" s="2" t="str">
+        <f>'Program targeting'!$A$8</f>
+        <v>Hybrid_Car_Use</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f>'Program targeting'!$A$9</f>
+        <v>LowGWP_Inhalers</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f>'Program targeting'!$A$10</f>
+        <v>LowGWP_AnaestheticGases</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f>'Program targeting'!$A$11</f>
+        <v>Staff_Training_Awareness</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="str">
+        <f>'Program targeting'!$C$2</f>
+        <v>Aga Khan Hospital, Mombasa</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="1" priority="111">
-      <formula>COUNTIF(F11:S11,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="112">
-      <formula>AND(COUNTIF(F11:S11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
+    <cfRule type="expression" dxfId="1" priority="79">
+      <formula>COUNTIF(F11:O11,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="80">
+      <formula>AND(COUNTIF(F11:O11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="1" priority="99">
+      <formula>COUNTIF(F14:O14,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="100">
+      <formula>AND(COUNTIF(F14:O14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="1" priority="119">
+      <formula>COUNTIF(F17:O17,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="120">
+      <formula>AND(COUNTIF(F17:O17,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="1" priority="19">
+      <formula>COUNTIF(F2:O2,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="20">
+      <formula>AND(COUNTIF(F2:O2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="1" priority="139">
-      <formula>COUNTIF(F14:S14,"&lt;&gt;" &amp; "")&lt;2</formula>
+      <formula>COUNTIF(F20:O20,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="140">
-      <formula>AND(COUNTIF(F14:S14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="1" priority="167">
-      <formula>COUNTIF(F17:S17,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="168">
-      <formula>AND(COUNTIF(F17:S17,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="1" priority="27">
-      <formula>COUNTIF(F2:S2,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
-      <formula>AND(COUNTIF(F2:S2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="1" priority="195">
-      <formula>COUNTIF(F20:S20,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="196">
-      <formula>AND(COUNTIF(F20:S20,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D20)))</formula>
+      <formula>AND(COUNTIF(F20:O20,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="1" priority="223">
-      <formula>COUNTIF(F23:S23,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="224">
-      <formula>AND(COUNTIF(F23:S23,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D23)))</formula>
+    <cfRule type="expression" dxfId="1" priority="159">
+      <formula>COUNTIF(F23:O23,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="160">
+      <formula>AND(COUNTIF(F23:O23,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="1" priority="179">
+      <formula>COUNTIF(F26:O26,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="180">
+      <formula>AND(COUNTIF(F26:O26,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="1" priority="199">
+      <formula>COUNTIF(F29:O29,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="200">
+      <formula>AND(COUNTIF(F29:O29,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="1" priority="55">
-      <formula>COUNTIF(F5:S5,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="56">
-      <formula>AND(COUNTIF(F5:S5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
+    <cfRule type="expression" dxfId="1" priority="39">
+      <formula>COUNTIF(F5:O5,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="40">
+      <formula>AND(COUNTIF(F5:O5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="1" priority="83">
-      <formula>COUNTIF(F8:S8,"&lt;&gt;" &amp; "")&lt;2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="84">
-      <formula>AND(COUNTIF(F8:S8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
+    <cfRule type="expression" dxfId="1" priority="59">
+      <formula>COUNTIF(F8:O8,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="60">
+      <formula>AND(COUNTIF(F8:O8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="85">
+    <cfRule type="expression" dxfId="2" priority="61">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
+    <cfRule type="expression" dxfId="3" priority="62">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="2" priority="113">
+    <cfRule type="expression" dxfId="2" priority="81">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="114">
+    <cfRule type="expression" dxfId="3" priority="82">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="2" priority="141">
+    <cfRule type="expression" dxfId="2" priority="101">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="142">
+    <cfRule type="expression" dxfId="3" priority="102">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4141,58 +3327,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="2" priority="169">
+    <cfRule type="expression" dxfId="2" priority="121">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="170">
+    <cfRule type="expression" dxfId="3" priority="122">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="2" priority="197">
+    <cfRule type="expression" dxfId="2" priority="141">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="198">
+    <cfRule type="expression" dxfId="3" priority="142">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="expression" dxfId="2" priority="161">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="162">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="expression" dxfId="2" priority="181">
+      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="182">
+      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="87">
+    <cfRule type="expression" dxfId="2" priority="63">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="88">
+    <cfRule type="expression" dxfId="3" priority="64">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="2" priority="115">
+    <cfRule type="expression" dxfId="2" priority="83">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="116">
+    <cfRule type="expression" dxfId="3" priority="84">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="2" priority="143">
+    <cfRule type="expression" dxfId="2" priority="103">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="144">
+    <cfRule type="expression" dxfId="3" priority="104">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4205,58 +3407,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="2" priority="171">
+    <cfRule type="expression" dxfId="2" priority="123">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="172">
+    <cfRule type="expression" dxfId="3" priority="124">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="2" priority="199">
+    <cfRule type="expression" dxfId="2" priority="143">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="200">
+    <cfRule type="expression" dxfId="3" priority="144">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="expression" dxfId="2" priority="163">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="164">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="expression" dxfId="2" priority="183">
+      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="184">
+      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="89">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="90">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="2" priority="117">
+    <cfRule type="expression" dxfId="2" priority="85">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="118">
+    <cfRule type="expression" dxfId="3" priority="86">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="2" priority="145">
+    <cfRule type="expression" dxfId="2" priority="105">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="146">
+    <cfRule type="expression" dxfId="3" priority="106">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4269,58 +3487,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="2" priority="173">
+    <cfRule type="expression" dxfId="2" priority="125">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="174">
+    <cfRule type="expression" dxfId="3" priority="126">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="2" priority="201">
+    <cfRule type="expression" dxfId="2" priority="145">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="202">
+    <cfRule type="expression" dxfId="3" priority="146">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="2" priority="165">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="166">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="2" priority="185">
+      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="186">
+      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
+    <cfRule type="expression" dxfId="3" priority="46">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="91">
+    <cfRule type="expression" dxfId="2" priority="67">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="92">
+    <cfRule type="expression" dxfId="3" priority="68">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="2" priority="119">
+    <cfRule type="expression" dxfId="2" priority="87">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="120">
+    <cfRule type="expression" dxfId="3" priority="88">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="2" priority="147">
+    <cfRule type="expression" dxfId="2" priority="107">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="148">
+    <cfRule type="expression" dxfId="3" priority="108">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4333,58 +3567,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="2" priority="175">
+    <cfRule type="expression" dxfId="2" priority="127">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="176">
+    <cfRule type="expression" dxfId="3" priority="128">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="2" priority="203">
+    <cfRule type="expression" dxfId="2" priority="147">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="204">
+    <cfRule type="expression" dxfId="3" priority="148">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="expression" dxfId="2" priority="167">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="168">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="expression" dxfId="2" priority="187">
+      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="188">
+      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="63">
+    <cfRule type="expression" dxfId="2" priority="47">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
+    <cfRule type="expression" dxfId="3" priority="48">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="93">
+    <cfRule type="expression" dxfId="2" priority="69">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="94">
+    <cfRule type="expression" dxfId="3" priority="70">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="2" priority="121">
+    <cfRule type="expression" dxfId="2" priority="89">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="122">
+    <cfRule type="expression" dxfId="3" priority="90">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="2" priority="149">
+    <cfRule type="expression" dxfId="2" priority="109">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="150">
+    <cfRule type="expression" dxfId="3" priority="110">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4397,58 +3647,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="2" priority="177">
+    <cfRule type="expression" dxfId="2" priority="129">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="178">
+    <cfRule type="expression" dxfId="3" priority="130">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="2" priority="205">
+    <cfRule type="expression" dxfId="2" priority="149">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="206">
+    <cfRule type="expression" dxfId="3" priority="150">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="expression" dxfId="2" priority="169">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="170">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="expression" dxfId="2" priority="189">
+      <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="190">
+      <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="2" priority="95">
+    <cfRule type="expression" dxfId="2" priority="71">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="96">
+    <cfRule type="expression" dxfId="3" priority="72">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="2" priority="123">
+    <cfRule type="expression" dxfId="2" priority="91">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="124">
+    <cfRule type="expression" dxfId="3" priority="92">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="2" priority="151">
+    <cfRule type="expression" dxfId="2" priority="111">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="152">
+    <cfRule type="expression" dxfId="3" priority="112">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4461,58 +3727,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="expression" dxfId="2" priority="179">
+    <cfRule type="expression" dxfId="2" priority="131">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="180">
+    <cfRule type="expression" dxfId="3" priority="132">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="2" priority="207">
+    <cfRule type="expression" dxfId="2" priority="151">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="208">
+    <cfRule type="expression" dxfId="3" priority="152">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="expression" dxfId="2" priority="171">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
+    <cfRule type="expression" dxfId="2" priority="191">
+      <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="192">
+      <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="2" priority="67">
+    <cfRule type="expression" dxfId="2" priority="51">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="2" priority="97">
+    <cfRule type="expression" dxfId="2" priority="73">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="98">
+    <cfRule type="expression" dxfId="3" priority="74">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="2" priority="125">
+    <cfRule type="expression" dxfId="2" priority="93">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="126">
+    <cfRule type="expression" dxfId="3" priority="94">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="expression" dxfId="2" priority="153">
+    <cfRule type="expression" dxfId="2" priority="113">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="154">
+    <cfRule type="expression" dxfId="3" priority="114">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4525,58 +3807,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="expression" dxfId="2" priority="181">
+    <cfRule type="expression" dxfId="2" priority="133">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="182">
+    <cfRule type="expression" dxfId="3" priority="134">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="expression" dxfId="2" priority="209">
+    <cfRule type="expression" dxfId="2" priority="153">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="210">
+    <cfRule type="expression" dxfId="3" priority="154">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="expression" dxfId="2" priority="173">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="174">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29">
+    <cfRule type="expression" dxfId="2" priority="193">
+      <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="194">
+      <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="2" priority="69">
+    <cfRule type="expression" dxfId="2" priority="53">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="expression" dxfId="2" priority="99">
+    <cfRule type="expression" dxfId="2" priority="75">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="100">
+    <cfRule type="expression" dxfId="3" priority="76">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="2" priority="127">
+    <cfRule type="expression" dxfId="2" priority="95">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="128">
+    <cfRule type="expression" dxfId="3" priority="96">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="2" priority="155">
+    <cfRule type="expression" dxfId="2" priority="115">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="156">
+    <cfRule type="expression" dxfId="3" priority="116">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4589,58 +3887,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="expression" dxfId="2" priority="183">
+    <cfRule type="expression" dxfId="2" priority="135">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="184">
+    <cfRule type="expression" dxfId="3" priority="136">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="expression" dxfId="2" priority="211">
+    <cfRule type="expression" dxfId="2" priority="155">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="212">
+    <cfRule type="expression" dxfId="3" priority="156">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="expression" dxfId="2" priority="175">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="176">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="expression" dxfId="2" priority="195">
+      <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="196">
+      <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="2" priority="35">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="3" priority="36">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
+    <cfRule type="expression" dxfId="3" priority="56">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="2" priority="101">
+    <cfRule type="expression" dxfId="2" priority="77">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="102">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="2" priority="129">
+    <cfRule type="expression" dxfId="2" priority="97">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="130">
+    <cfRule type="expression" dxfId="3" priority="98">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17">
-    <cfRule type="expression" dxfId="2" priority="157">
+    <cfRule type="expression" dxfId="2" priority="117">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="158">
+    <cfRule type="expression" dxfId="3" priority="118">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4653,294 +3967,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20">
-    <cfRule type="expression" dxfId="2" priority="185">
+    <cfRule type="expression" dxfId="2" priority="137">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="186">
+    <cfRule type="expression" dxfId="3" priority="138">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="expression" dxfId="2" priority="213">
+    <cfRule type="expression" dxfId="2" priority="157">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="214">
+    <cfRule type="expression" dxfId="3" priority="158">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="expression" dxfId="2" priority="177">
+      <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="178">
+      <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29">
+    <cfRule type="expression" dxfId="2" priority="197">
+      <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O29)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="198">
+      <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="2" priority="73">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="74">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="expression" dxfId="2" priority="103">
-      <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="104">
-      <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="2" priority="131">
-      <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="132">
-      <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17">
-    <cfRule type="expression" dxfId="2" priority="159">
-      <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P17)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="160">
-      <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
-    <cfRule type="expression" dxfId="2" priority="19">
-      <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
-      <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20">
-    <cfRule type="expression" dxfId="2" priority="187">
-      <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P20)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="188">
-      <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="2" priority="215">
-      <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P23)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="216">
-      <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="2" priority="47">
-      <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
-      <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="expression" dxfId="2" priority="75">
-      <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76">
-      <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="2" priority="105">
-      <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="106">
-      <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="expression" dxfId="2" priority="133">
-      <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="134">
-      <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
-    <cfRule type="expression" dxfId="2" priority="161">
-      <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q17)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="162">
-      <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="expression" dxfId="2" priority="21">
-      <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
-      <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="expression" dxfId="2" priority="189">
-      <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q20)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="190">
-      <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="expression" dxfId="2" priority="217">
-      <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q23)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="218">
-      <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="2" priority="49">
-      <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
-      <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
-    <cfRule type="expression" dxfId="2" priority="77">
-      <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="78">
-      <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11">
-    <cfRule type="expression" dxfId="2" priority="107">
-      <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="108">
-      <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
-    <cfRule type="expression" dxfId="2" priority="135">
-      <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="136">
-      <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R17">
-    <cfRule type="expression" dxfId="2" priority="163">
-      <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R17)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="164">
-      <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2">
-    <cfRule type="expression" dxfId="2" priority="23">
-      <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
-      <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20">
-    <cfRule type="expression" dxfId="2" priority="191">
-      <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R20)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="192">
-      <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="expression" dxfId="2" priority="219">
-      <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R23)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="220">
-      <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="expression" dxfId="2" priority="51">
-      <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
-      <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8">
-    <cfRule type="expression" dxfId="2" priority="79">
-      <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="80">
-      <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S11">
-    <cfRule type="expression" dxfId="2" priority="109">
-      <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="110">
-      <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S14">
-    <cfRule type="expression" dxfId="2" priority="137">
-      <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S14)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="138">
-      <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S17">
-    <cfRule type="expression" dxfId="2" priority="165">
-      <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S17)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="166">
-      <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
-    <cfRule type="expression" dxfId="2" priority="25">
-      <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
-      <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20">
-    <cfRule type="expression" dxfId="2" priority="193">
-      <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S20)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="194">
-      <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
-    <cfRule type="expression" dxfId="2" priority="221">
-      <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S23)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="222">
-      <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="2" priority="53">
-      <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
-      <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8">
-    <cfRule type="expression" dxfId="2" priority="81">
-      <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="82">
-      <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
@@ -4965,6 +4039,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/carbomica_progbook_AKHS_Mombasa.xlsx
+++ b/templates/carbomica_progbook_AKHS_Mombasa.xlsx
@@ -39,7 +39,7 @@
     <t>Recycling_WasteSegregation</t>
   </si>
   <si>
-    <t>Recycling, Waste segregation</t>
+    <t>Recycling &amp; Segregation</t>
   </si>
   <si>
     <t>N</t>
@@ -48,49 +48,49 @@
     <t>SolarSystem_Installation</t>
   </si>
   <si>
-    <t>Solar system</t>
+    <t>Solar Energy</t>
   </si>
   <si>
     <t>Efficient_Chillers_Upgrade</t>
   </si>
   <si>
-    <t>Upgrade to more efficient chillers/VRFs/Split units</t>
+    <t>Efficient Chillers</t>
   </si>
   <si>
     <t>Lighting_Efficiency</t>
   </si>
   <si>
-    <t>Use energy efficient LED bulbs; Implement lighting controls (occupancy sensors, timers, dimmers/centralized switch)</t>
+    <t>LED &amp; Lighting Control</t>
   </si>
   <si>
     <t>LowGWP_Refrigerants</t>
   </si>
   <si>
-    <t>Use low GWP refrigerants (R410 - CO2)</t>
+    <t>Low-GWP Refrigerants</t>
   </si>
   <si>
     <t>Hybrid_Car_Use</t>
   </si>
   <si>
-    <t>Use Hybrid cars</t>
+    <t>Hybrid Vehicles</t>
   </si>
   <si>
     <t>LowGWP_Inhalers</t>
   </si>
   <si>
-    <t>Encourage use of low GWP inhalers (Ventolin Evohaler Sulbatomol to Dry powder)</t>
+    <t>Low-GWP Inhalers</t>
   </si>
   <si>
     <t>LowGWP_AnaestheticGases</t>
   </si>
   <si>
-    <t>Use low GWP anaesthetic gases (Nitrogen oxide to Isoflurane)</t>
+    <t>Eco-friendly Anesthetics</t>
   </si>
   <si>
     <t>Staff_Training_Awareness</t>
   </si>
   <si>
-    <t>Staff training and awareness; Conservation and reduction Operation activities for all emissions</t>
+    <t>Emissions Training &amp; Conservation</t>
   </si>
   <si>
     <t>Provenance</t>
@@ -162,7 +162,7 @@
     <t>Vehicle Fuel (Owned Vehicles) - multiplier</t>
   </si>
   <si>
-    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - multiplier</t>
+    <t>Business travel - multiplier</t>
   </si>
   <si>
     <t>Anaesthetic gases - multiplier</t>
@@ -622,7 +622,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="128.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
@@ -2461,7 +2461,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="85.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" customWidth="1"/>
     <col min="8" max="8" width="28.140625" customWidth="1"/>

--- a/templates/carbomica_progbook_AKHS_Mombasa.xlsx
+++ b/templates/carbomica_progbook_AKHS_Mombasa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="53">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -944,9 +944,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="str">
-        <f>'Program targeting'!$A$3</f>
-        <v>Recycling_WasteSegregation</v>
+      <c r="A1" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -1068,9 +1067,8 @@
       <c r="K6" s="6"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2" t="str">
-        <f>'Program targeting'!$A$4</f>
-        <v>SolarSystem_Installation</v>
+      <c r="A8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -1192,9 +1190,8 @@
       <c r="K13" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2" t="str">
-        <f>'Program targeting'!$A$5</f>
-        <v>Efficient_Chillers_Upgrade</v>
+      <c r="A15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -1316,9 +1313,8 @@
       <c r="K20" s="6"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2" t="str">
-        <f>'Program targeting'!$A$6</f>
-        <v>Lighting_Efficiency</v>
+      <c r="A22" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
@@ -1440,9 +1436,8 @@
       <c r="K27" s="6"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="2" t="str">
-        <f>'Program targeting'!$A$7</f>
-        <v>LowGWP_Refrigerants</v>
+      <c r="A29" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
@@ -1564,9 +1559,8 @@
       <c r="K34" s="6"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="2" t="str">
-        <f>'Program targeting'!$A$8</f>
-        <v>Hybrid_Car_Use</v>
+      <c r="A36" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>25</v>
@@ -1688,9 +1682,8 @@
       <c r="K41" s="6"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="2" t="str">
-        <f>'Program targeting'!$A$9</f>
-        <v>LowGWP_Inhalers</v>
+      <c r="A43" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>25</v>
@@ -1812,9 +1805,8 @@
       <c r="K48" s="6"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="2" t="str">
-        <f>'Program targeting'!$A$10</f>
-        <v>LowGWP_AnaestheticGases</v>
+      <c r="A50" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>25</v>
@@ -1936,9 +1928,8 @@
       <c r="K55" s="6"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="2" t="str">
-        <f>'Program targeting'!$A$11</f>
-        <v>Staff_Training_Awareness</v>
+      <c r="A57" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>25</v>
